--- a/SchedulingData/static6/pso/scheduling1_7.xlsx
+++ b/SchedulingData/static6/pso/scheduling1_7.xlsx
@@ -466,55 +466,55 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>32.08</v>
+        <v>59.9</v>
       </c>
       <c r="E2" t="n">
-        <v>27.492</v>
+        <v>26.2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>32.08</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>111.92</v>
+        <v>105.64</v>
       </c>
       <c r="E3" t="n">
-        <v>23.628</v>
+        <v>25.576</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>105.64</v>
       </c>
       <c r="D4" t="n">
-        <v>79.40000000000001</v>
+        <v>147.18</v>
       </c>
       <c r="E4" t="n">
-        <v>24.72</v>
+        <v>22.552</v>
       </c>
     </row>
     <row r="5">
@@ -523,93 +523,93 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>79.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>128.08</v>
+        <v>78.81999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>21.472</v>
+        <v>25.788</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>111.92</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>192.86</v>
+        <v>78.68000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>19.624</v>
+        <v>27.272</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>78.68000000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>40</v>
+        <v>136.78</v>
       </c>
       <c r="E7" t="n">
-        <v>26.7</v>
+        <v>23.592</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>192.86</v>
+        <v>147.18</v>
       </c>
       <c r="D8" t="n">
-        <v>266.66</v>
+        <v>200.96</v>
       </c>
       <c r="E8" t="n">
-        <v>15.824</v>
+        <v>19.304</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>40</v>
+        <v>59.9</v>
       </c>
       <c r="D9" t="n">
-        <v>102.5</v>
+        <v>125.8</v>
       </c>
       <c r="E9" t="n">
-        <v>23.58</v>
+        <v>20.74</v>
       </c>
     </row>
     <row r="10">
@@ -618,36 +618,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>128.08</v>
+        <v>78.81999999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>193.72</v>
+        <v>138.48</v>
       </c>
       <c r="E10" t="n">
-        <v>17.048</v>
+        <v>20.952</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>102.5</v>
+        <v>200.96</v>
       </c>
       <c r="D11" t="n">
-        <v>159.2</v>
+        <v>243.76</v>
       </c>
       <c r="E11" t="n">
-        <v>20.04</v>
+        <v>15.664</v>
       </c>
     </row>
     <row r="12">
@@ -656,74 +656,74 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>243.76</v>
       </c>
       <c r="D12" t="n">
-        <v>72.8</v>
+        <v>311.48</v>
       </c>
       <c r="E12" t="n">
-        <v>26.36</v>
+        <v>10.512</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>125.8</v>
       </c>
       <c r="D13" t="n">
-        <v>58.6</v>
+        <v>184.24</v>
       </c>
       <c r="E13" t="n">
-        <v>26.34</v>
+        <v>17.516</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>266.66</v>
+        <v>138.48</v>
       </c>
       <c r="D14" t="n">
-        <v>344.28</v>
+        <v>214.88</v>
       </c>
       <c r="E14" t="n">
-        <v>10.672</v>
+        <v>17.412</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>58.6</v>
+        <v>214.88</v>
       </c>
       <c r="D15" t="n">
-        <v>135.66</v>
+        <v>293.68</v>
       </c>
       <c r="E15" t="n">
-        <v>21.244</v>
+        <v>12.132</v>
       </c>
     </row>
     <row r="16">
@@ -732,17 +732,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>72.8</v>
+        <v>311.48</v>
       </c>
       <c r="D16" t="n">
-        <v>159.2</v>
+        <v>343.8</v>
       </c>
       <c r="E16" t="n">
-        <v>21.8</v>
+        <v>7.92</v>
       </c>
     </row>
     <row r="17">
@@ -751,74 +751,74 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>344.28</v>
+        <v>184.24</v>
       </c>
       <c r="D17" t="n">
-        <v>406.42</v>
+        <v>243.4</v>
       </c>
       <c r="E17" t="n">
-        <v>7.088</v>
+        <v>13.72</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>243.4</v>
       </c>
       <c r="D18" t="n">
-        <v>78.68000000000001</v>
+        <v>306.2</v>
       </c>
       <c r="E18" t="n">
-        <v>27.272</v>
+        <v>10.06</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>159.2</v>
+        <v>293.68</v>
       </c>
       <c r="D19" t="n">
-        <v>231.26</v>
+        <v>355.68</v>
       </c>
       <c r="E19" t="n">
-        <v>14.944</v>
+        <v>8.052</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406.42</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>475.44</v>
+        <v>40.1</v>
       </c>
       <c r="E20" t="n">
-        <v>4.316</v>
+        <v>27.68</v>
       </c>
     </row>
     <row r="21">
@@ -827,93 +827,93 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>78.68000000000001</v>
+        <v>136.78</v>
       </c>
       <c r="D21" t="n">
-        <v>159.28</v>
+        <v>220.58</v>
       </c>
       <c r="E21" t="n">
-        <v>21.812</v>
+        <v>18.792</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>159.28</v>
+        <v>40.1</v>
       </c>
       <c r="D22" t="n">
-        <v>238.84</v>
+        <v>86.48</v>
       </c>
       <c r="E22" t="n">
-        <v>16.976</v>
+        <v>25.172</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>238.84</v>
+        <v>86.48</v>
       </c>
       <c r="D23" t="n">
-        <v>290.74</v>
+        <v>138.48</v>
       </c>
       <c r="E23" t="n">
-        <v>13.416</v>
+        <v>20.612</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>135.66</v>
+        <v>220.58</v>
       </c>
       <c r="D24" t="n">
-        <v>202.46</v>
+        <v>270.52</v>
       </c>
       <c r="E24" t="n">
-        <v>16.204</v>
+        <v>14.928</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>290.74</v>
+        <v>343.8</v>
       </c>
       <c r="D25" t="n">
-        <v>344.34</v>
+        <v>409.94</v>
       </c>
       <c r="E25" t="n">
-        <v>10.656</v>
+        <v>3.916</v>
       </c>
     </row>
     <row r="26">
@@ -922,93 +922,93 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>202.46</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>279.36</v>
+        <v>82.84</v>
       </c>
       <c r="E26" t="n">
-        <v>12.124</v>
+        <v>25.856</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>344.34</v>
+        <v>138.48</v>
       </c>
       <c r="D27" t="n">
-        <v>404.38</v>
+        <v>185.98</v>
       </c>
       <c r="E27" t="n">
-        <v>7.752</v>
+        <v>17.492</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>193.72</v>
+        <v>409.94</v>
       </c>
       <c r="D28" t="n">
-        <v>272.62</v>
+        <v>473.1</v>
       </c>
       <c r="E28" t="n">
-        <v>12.248</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>272.62</v>
+        <v>473.1</v>
       </c>
       <c r="D29" t="n">
-        <v>331.74</v>
+        <v>569.16</v>
       </c>
       <c r="E29" t="n">
-        <v>9.476000000000001</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>475.44</v>
+        <v>185.98</v>
       </c>
       <c r="D30" t="n">
-        <v>512.76</v>
+        <v>263.14</v>
       </c>
       <c r="E30" t="n">
-        <v>1.724</v>
+        <v>12.396</v>
       </c>
     </row>
     <row r="31">
@@ -1017,55 +1017,55 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>512.76</v>
+        <v>306.2</v>
       </c>
       <c r="D31" t="n">
-        <v>595.91</v>
+        <v>369.54</v>
       </c>
       <c r="E31" t="n">
-        <v>30</v>
+        <v>6.836</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>595.91</v>
+        <v>355.68</v>
       </c>
       <c r="D32" t="n">
-        <v>637.75</v>
+        <v>419.42</v>
       </c>
       <c r="E32" t="n">
-        <v>26.516</v>
+        <v>3.788</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>404.38</v>
+        <v>82.84</v>
       </c>
       <c r="D33" t="n">
-        <v>462.74</v>
+        <v>156.64</v>
       </c>
       <c r="E33" t="n">
-        <v>4.056</v>
+        <v>22.556</v>
       </c>
     </row>
     <row r="34">
@@ -1074,150 +1074,150 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>331.74</v>
+        <v>419.42</v>
       </c>
       <c r="D34" t="n">
-        <v>390.74</v>
+        <v>467.54</v>
       </c>
       <c r="E34" t="n">
-        <v>7.156</v>
+        <v>0.596</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>231.26</v>
+        <v>467.54</v>
       </c>
       <c r="D35" t="n">
-        <v>284.9</v>
+        <v>562.85</v>
       </c>
       <c r="E35" t="n">
-        <v>11.72</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>284.9</v>
+        <v>156.64</v>
       </c>
       <c r="D36" t="n">
-        <v>333.42</v>
+        <v>210.54</v>
       </c>
       <c r="E36" t="n">
-        <v>7.508</v>
+        <v>19.796</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>333.42</v>
+        <v>562.85</v>
       </c>
       <c r="D37" t="n">
-        <v>385.5</v>
+        <v>615.79</v>
       </c>
       <c r="E37" t="n">
-        <v>3.92</v>
+        <v>26.876</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>159.2</v>
+        <v>270.52</v>
       </c>
       <c r="D38" t="n">
-        <v>218.68</v>
+        <v>334.16</v>
       </c>
       <c r="E38" t="n">
-        <v>18.992</v>
+        <v>10.704</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>279.36</v>
+        <v>263.14</v>
       </c>
       <c r="D39" t="n">
-        <v>341.7</v>
+        <v>329.94</v>
       </c>
       <c r="E39" t="n">
-        <v>9</v>
+        <v>7.356</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>218.68</v>
+        <v>334.16</v>
       </c>
       <c r="D40" t="n">
-        <v>282.42</v>
+        <v>396.42</v>
       </c>
       <c r="E40" t="n">
-        <v>14.728</v>
+        <v>5.608</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>390.74</v>
+        <v>210.54</v>
       </c>
       <c r="D41" t="n">
-        <v>459.6</v>
+        <v>272.14</v>
       </c>
       <c r="E41" t="n">
-        <v>3.36</v>
+        <v>16.236</v>
       </c>
     </row>
     <row r="42">
@@ -1230,222 +1230,222 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>385.5</v>
+        <v>329.94</v>
       </c>
       <c r="D42" t="n">
-        <v>438.9</v>
+        <v>393.14</v>
       </c>
       <c r="E42" t="n">
-        <v>0.2</v>
+        <v>3.636</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>438.9</v>
+        <v>396.42</v>
       </c>
       <c r="D43" t="n">
-        <v>544.8</v>
+        <v>450.6</v>
       </c>
       <c r="E43" t="n">
-        <v>30</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>459.6</v>
+        <v>272.14</v>
       </c>
       <c r="D44" t="n">
-        <v>513.04</v>
+        <v>312.58</v>
       </c>
       <c r="E44" t="n">
-        <v>0.136</v>
+        <v>13.332</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>513.04</v>
+        <v>569.16</v>
       </c>
       <c r="D45" t="n">
-        <v>579.77</v>
+        <v>633.48</v>
       </c>
       <c r="E45" t="n">
-        <v>30</v>
+        <v>27.228</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>282.42</v>
+        <v>393.14</v>
       </c>
       <c r="D46" t="n">
-        <v>345.96</v>
+        <v>445.22</v>
       </c>
       <c r="E46" t="n">
-        <v>10.504</v>
+        <v>0.048</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>341.7</v>
+        <v>445.22</v>
       </c>
       <c r="D47" t="n">
-        <v>419.5</v>
+        <v>546.62</v>
       </c>
       <c r="E47" t="n">
-        <v>5.32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>419.5</v>
+        <v>369.54</v>
       </c>
       <c r="D48" t="n">
-        <v>456.14</v>
+        <v>451.58</v>
       </c>
       <c r="E48" t="n">
-        <v>2.296</v>
+        <v>3.252</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>462.74</v>
+        <v>546.62</v>
       </c>
       <c r="D49" t="n">
-        <v>556.13</v>
+        <v>591.24</v>
       </c>
       <c r="E49" t="n">
-        <v>30</v>
+        <v>27.228</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>556.13</v>
+        <v>312.58</v>
       </c>
       <c r="D50" t="n">
-        <v>633.97</v>
+        <v>376.5</v>
       </c>
       <c r="E50" t="n">
-        <v>25.856</v>
+        <v>9.06</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>544.8</v>
+        <v>450.6</v>
       </c>
       <c r="D51" t="n">
-        <v>618.22</v>
+        <v>517</v>
       </c>
       <c r="E51" t="n">
-        <v>26.808</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>345.96</v>
+        <v>517</v>
       </c>
       <c r="D52" t="n">
-        <v>380.46</v>
+        <v>558.84</v>
       </c>
       <c r="E52" t="n">
-        <v>8.183999999999999</v>
+        <v>26.516</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>380.46</v>
+        <v>376.5</v>
       </c>
       <c r="D53" t="n">
-        <v>449.38</v>
+        <v>455.7</v>
       </c>
       <c r="E53" t="n">
-        <v>3.912</v>
+        <v>6.74</v>
       </c>
     </row>
   </sheetData>
